--- a/data/trans_bre/P6901-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P6901-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-43,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,23%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,42; 4,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,13; 37,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,72; 35,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 69,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,87; 7,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,22; 64,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,18; 116,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 340,48</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,08%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,02; 27,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 29,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 34,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,33; 10,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,63; 42,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 44,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 57,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,58; 14,14</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; 17,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,57; 16,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 27,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 18,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,34; 25,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; 23,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,21; 41,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 28,74</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 19,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; 15,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,5; 16,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,43; 19,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 27,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,75; 23,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,82; 21,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,4; 30,43</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,62; 9,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,8; 14,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 25,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,64; 13,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,99; 12,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; 21,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 42,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,46; 20,94</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 9,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 11,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 17,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 9,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 13,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 16,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,99; 24,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 14,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6901-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-43,74</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>14,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>12,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,28</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-50,63%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,23%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 4,85</t>
+          <t>-14,48; 17,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 37,68</t>
+          <t>-3,68; 27,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 35,75</t>
+          <t>-7,44; 27,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 69,27</t>
+          <t>-11,0; 18,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-84,87; 7,36</t>
+          <t>-18,0; 25,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 64,42</t>
+          <t>-4,64; 42,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,18; 116,95</t>
+          <t>-9,04; 44,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 340,48</t>
+          <t>-12,94; 26,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,38</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,27</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 27,85</t>
+          <t>-7,71; 17,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 29,17</t>
+          <t>-11,57; 16,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 34,51</t>
+          <t>3,27; 27,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 10,91</t>
+          <t>-3,02; 18,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 42,57</t>
+          <t>-10,34; 25,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 44,35</t>
+          <t>-14,16; 23,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 57,28</t>
+          <t>4,21; 41,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 14,14</t>
+          <t>-3,75; 28,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,36</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 17,6</t>
+          <t>-5,78; 19,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 16,6</t>
+          <t>-16,2; 15,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 27,81</t>
+          <t>-7,5; 16,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 18,72</t>
+          <t>-9,41; 28,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 25,77</t>
+          <t>-7,15; 27,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 23,5</t>
+          <t>-20,75; 23,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 41,96</t>
+          <t>-8,82; 21,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 28,74</t>
+          <t>-11,97; 47,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 19,89</t>
+          <t>-14,62; 9,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 15,87</t>
+          <t>-14,8; 14,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 16,19</t>
+          <t>-2,93; 25,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 19,65</t>
+          <t>-14,86; 14,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 27,53</t>
+          <t>-17,99; 12,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 23,73</t>
+          <t>-18,82; 21,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 21,66</t>
+          <t>-4,17; 42,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 30,43</t>
+          <t>-19,67; 23,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>7,21%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 9,31</t>
+          <t>-3,69; 9,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 14,35</t>
+          <t>-4,49; 11,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 25,37</t>
+          <t>3,19; 17,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 13,3</t>
+          <t>-2,85; 12,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 12,99</t>
+          <t>-4,71; 13,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 21,87</t>
+          <t>-6,04; 16,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 42,66</t>
+          <t>3,99; 24,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 20,94</t>
+          <t>-3,59; 18,75</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>10,44</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,22</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,98%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>14,01%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 9,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 11,39</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 17,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 9,96</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 13,48</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-6,04; 16,14</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 24,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 14,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P6901-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 17,58</t>
+          <t>-15,2; 17,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 27,71</t>
+          <t>-1,29; 27,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 27,99</t>
+          <t>-7,09; 29,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 18,05</t>
+          <t>-11,31; 17,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 25,26</t>
+          <t>-17,62; 25,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 42,87</t>
+          <t>-1,49; 42,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 44,68</t>
+          <t>-8,19; 48,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 26,85</t>
+          <t>-12,88; 26,35</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 17,6</t>
+          <t>-9,49; 18,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 16,6</t>
+          <t>-9,98; 17,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 27,81</t>
+          <t>2,53; 28,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 18,74</t>
+          <t>-2,68; 19,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 25,77</t>
+          <t>-12,32; 27,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 23,5</t>
+          <t>-12,2; 24,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 41,96</t>
+          <t>3,16; 43,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 28,75</t>
+          <t>-3,32; 30,9</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 19,89</t>
+          <t>-4,11; 20,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 15,87</t>
+          <t>-14,95; 16,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 16,19</t>
+          <t>-5,99; 16,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 28,17</t>
+          <t>-9,23; 27,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 27,53</t>
+          <t>-5,36; 29,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 23,73</t>
+          <t>-18,7; 25,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 21,66</t>
+          <t>-6,98; 22,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 47,99</t>
+          <t>-11,68; 46,11</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 9,31</t>
+          <t>-14,36; 9,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 14,35</t>
+          <t>-15,57; 15,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 25,37</t>
+          <t>-3,97; 24,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 14,81</t>
+          <t>-13,6; 15,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 12,99</t>
+          <t>-17,92; 13,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 21,87</t>
+          <t>-19,74; 22,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 42,66</t>
+          <t>-5,08; 42,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 23,53</t>
+          <t>-17,57; 23,69</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 9,74</t>
+          <t>-4,22; 9,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,39</t>
+          <t>-4,22; 11,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 17,58</t>
+          <t>2,77; 16,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 12,84</t>
+          <t>-2,27; 13,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 13,48</t>
+          <t>-5,28; 13,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 16,14</t>
+          <t>-5,34; 15,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 24,91</t>
+          <t>3,63; 24,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 18,75</t>
+          <t>-2,75; 20,14</t>
         </is>
       </c>
     </row>
